--- a/Test Calendar 2024.xlsx
+++ b/Test Calendar 2024.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Minh\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Minh\Documents\AggieHouse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76C368F4-279F-4747-A9E2-DEF727E0063B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB8C679D-1443-4B28-99D7-E2CD41D38562}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3444" yWindow="3180" windowWidth="23040" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Schedule" sheetId="1" r:id="rId1"/>
@@ -232,7 +232,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -297,6 +297,12 @@
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.39997558519241921"/>
         <bgColor rgb="FFFFF2CC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -389,7 +395,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -403,13 +408,14 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="5" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -631,10 +637,10 @@
   <dimension ref="A2:I989"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B79" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -658,851 +664,853 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="27" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="17" t="s">
         <v>0</v>
       </c>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="31">
+      <c r="B4" s="30">
         <v>45299</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="19" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="31">
+      <c r="B5" s="30">
         <v>45300</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="19" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="31">
+      <c r="B6" s="30">
         <v>45301</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="19" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="31">
+      <c r="B7" s="30">
         <v>45302</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="19" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="31">
+      <c r="B8" s="30">
         <v>45303</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="30"/>
+      <c r="E8" s="29"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="31">
+      <c r="B9" s="30">
         <v>45304</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="19" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="31">
+      <c r="B10" s="30">
         <v>45305</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="21" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="23"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="22"/>
       <c r="I11" s="1"/>
     </row>
     <row r="12" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="32">
+      <c r="B12" s="31">
         <v>44941</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="19" t="s">
         <v>14</v>
       </c>
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="32">
+      <c r="B13" s="31">
         <v>44942</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="19" t="s">
         <v>16</v>
       </c>
       <c r="I13" s="1"/>
     </row>
     <row r="14" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="32">
+      <c r="B14" s="31">
         <v>44943</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="28" t="s">
         <v>14</v>
       </c>
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="32">
+      <c r="B15" s="31">
         <v>44944</v>
       </c>
-      <c r="C15" s="24"/>
+      <c r="C15" s="23"/>
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="32">
+      <c r="B16" s="31">
         <v>44945</v>
       </c>
-      <c r="C16" s="20"/>
+      <c r="C16" s="19"/>
       <c r="I16" s="1"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A17" s="21" t="s">
+      <c r="A17" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="32">
+      <c r="B17" s="31">
         <v>44946</v>
       </c>
-      <c r="C17" s="20"/>
+      <c r="C17" s="19"/>
       <c r="I17" s="1"/>
     </row>
     <row r="18" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="32">
+      <c r="B18" s="31">
         <v>44947</v>
       </c>
-      <c r="C18" s="20"/>
+      <c r="C18" s="19"/>
       <c r="I18" s="1"/>
     </row>
     <row r="19" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A19" s="18" t="s">
+      <c r="A19" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="17"/>
-      <c r="C19" s="23"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="22"/>
       <c r="I19" s="1"/>
     </row>
     <row r="20" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A20" s="19" t="s">
+      <c r="A20" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="31">
+      <c r="B20" s="30">
         <v>44948</v>
       </c>
-      <c r="C20" s="25"/>
+      <c r="C20" s="24"/>
       <c r="I20" s="1"/>
     </row>
     <row r="21" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A21" s="19" t="s">
+      <c r="A21" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="31">
+      <c r="B21" s="30">
         <v>44949</v>
       </c>
-      <c r="C21" s="20"/>
+      <c r="C21" s="19"/>
       <c r="I21" s="1"/>
     </row>
     <row r="22" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A22" s="19" t="s">
+      <c r="A22" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="31">
+      <c r="B22" s="30">
         <v>44950</v>
       </c>
-      <c r="C22" s="20"/>
+      <c r="C22" s="19"/>
       <c r="I22" s="1"/>
     </row>
     <row r="23" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A23" s="19" t="s">
+      <c r="A23" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="31">
+      <c r="B23" s="30">
         <v>44951</v>
       </c>
-      <c r="C23" s="22"/>
+      <c r="C23" s="21"/>
       <c r="I23" s="1"/>
     </row>
     <row r="24" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A24" s="19" t="s">
+      <c r="A24" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B24" s="31">
+      <c r="B24" s="30">
         <v>44952</v>
       </c>
-      <c r="C24" s="20"/>
+      <c r="C24" s="19"/>
       <c r="I24" s="1"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A25" s="21" t="s">
+      <c r="A25" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="31">
+      <c r="B25" s="30">
         <v>44953</v>
       </c>
-      <c r="C25" s="20"/>
+      <c r="C25" s="19"/>
       <c r="I25" s="1"/>
     </row>
     <row r="26" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A26" s="21" t="s">
+      <c r="A26" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B26" s="31">
+      <c r="B26" s="30">
         <v>44954</v>
       </c>
-      <c r="C26" s="20"/>
+      <c r="C26" s="19"/>
       <c r="I26" s="1"/>
     </row>
     <row r="27" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A27" s="18" t="s">
+      <c r="A27" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B27" s="17"/>
-      <c r="C27" s="23"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="22"/>
       <c r="I27" s="1"/>
     </row>
     <row r="28" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A28" s="19" t="s">
+      <c r="A28" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B28" s="32">
+      <c r="B28" s="31">
         <v>44955</v>
       </c>
-      <c r="C28" s="25"/>
+      <c r="C28" s="24"/>
       <c r="I28" s="1"/>
     </row>
     <row r="29" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A29" s="19" t="s">
+      <c r="A29" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B29" s="32">
+      <c r="B29" s="31">
         <v>44956</v>
       </c>
-      <c r="C29" s="20"/>
+      <c r="C29" s="19"/>
       <c r="I29" s="1"/>
     </row>
     <row r="30" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A30" s="19" t="s">
+      <c r="A30" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B30" s="32">
+      <c r="B30" s="31">
         <v>44957</v>
       </c>
-      <c r="C30" s="20"/>
+      <c r="C30" s="19"/>
       <c r="I30" s="1"/>
     </row>
     <row r="31" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A31" s="19" t="s">
+      <c r="A31" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B31" s="32">
+      <c r="B31" s="31">
         <v>44958</v>
       </c>
-      <c r="C31" s="20"/>
+      <c r="C31" s="19"/>
       <c r="I31" s="1"/>
     </row>
     <row r="32" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A32" s="19" t="s">
+      <c r="A32" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B32" s="32">
+      <c r="B32" s="31">
         <v>44959</v>
       </c>
-      <c r="C32" s="20"/>
+      <c r="C32" s="19"/>
       <c r="I32" s="1"/>
     </row>
     <row r="33" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A33" s="21" t="s">
+      <c r="A33" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B33" s="31">
+      <c r="B33" s="30">
         <v>44960</v>
       </c>
-      <c r="C33" s="22"/>
+      <c r="C33" s="21"/>
       <c r="I33" s="1"/>
     </row>
     <row r="34" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A34" s="21" t="s">
+      <c r="A34" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B34" s="31">
+      <c r="B34" s="30">
         <v>44961</v>
       </c>
-      <c r="C34" s="20"/>
+      <c r="C34" s="19"/>
       <c r="I34" s="1"/>
     </row>
     <row r="35" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A35" s="18" t="s">
+      <c r="A35" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B35" s="17"/>
-      <c r="C35" s="23"/>
+      <c r="B35" s="35"/>
+      <c r="C35" s="22"/>
     </row>
     <row r="36" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A36" s="19" t="s">
+      <c r="A36" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B36" s="32">
+      <c r="B36" s="31">
         <v>44962</v>
       </c>
-      <c r="C36" s="20"/>
+      <c r="C36" s="19"/>
     </row>
     <row r="37" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A37" s="19" t="s">
+      <c r="A37" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B37" s="32">
+      <c r="B37" s="31">
         <v>44963</v>
       </c>
-      <c r="C37" s="20"/>
+      <c r="C37" s="19"/>
     </row>
     <row r="38" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A38" s="19" t="s">
+      <c r="A38" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B38" s="32">
+      <c r="B38" s="31">
         <v>44964</v>
       </c>
-      <c r="C38" s="20"/>
+      <c r="C38" s="19"/>
     </row>
     <row r="39" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A39" s="19" t="s">
+      <c r="A39" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B39" s="32">
+      <c r="B39" s="31">
         <v>44965</v>
       </c>
-      <c r="C39" s="20"/>
+      <c r="C39" s="19"/>
     </row>
     <row r="40" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A40" s="19" t="s">
+      <c r="A40" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B40" s="32">
+      <c r="B40" s="31">
         <v>44966</v>
       </c>
-      <c r="C40" s="22"/>
+      <c r="C40" s="21"/>
     </row>
     <row r="41" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A41" s="21" t="s">
+      <c r="A41" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B41" s="32">
+      <c r="B41" s="31">
         <v>44967</v>
       </c>
-      <c r="C41" s="20"/>
+      <c r="C41" s="19"/>
     </row>
     <row r="42" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A42" s="21" t="s">
+      <c r="A42" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B42" s="32">
+      <c r="B42" s="31">
         <v>44968</v>
       </c>
-      <c r="C42" s="22"/>
+      <c r="C42" s="21"/>
     </row>
     <row r="43" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A43" s="18" t="s">
+      <c r="A43" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B43" s="17"/>
-      <c r="C43" s="23"/>
+      <c r="B43" s="35"/>
+      <c r="C43" s="22"/>
     </row>
     <row r="44" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A44" s="19" t="s">
+      <c r="A44" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B44" s="32">
+      <c r="B44" s="31">
         <v>44969</v>
       </c>
-      <c r="C44" s="22"/>
+      <c r="C44" s="21"/>
     </row>
     <row r="45" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A45" s="19" t="s">
+      <c r="A45" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B45" s="32">
+      <c r="B45" s="31">
         <v>44970</v>
       </c>
-      <c r="C45" s="22"/>
+      <c r="C45" s="21"/>
     </row>
     <row r="46" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A46" s="19" t="s">
+      <c r="A46" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B46" s="32">
+      <c r="B46" s="31">
         <v>44971</v>
       </c>
-      <c r="C46" s="22"/>
+      <c r="C46" s="21"/>
     </row>
     <row r="47" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A47" s="19" t="s">
+      <c r="A47" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B47" s="32">
+      <c r="B47" s="31">
         <v>44972</v>
       </c>
-      <c r="C47" s="22"/>
+      <c r="C47" s="21"/>
     </row>
     <row r="48" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A48" s="19" t="s">
+      <c r="A48" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B48" s="32">
+      <c r="B48" s="31">
         <v>44973</v>
       </c>
-      <c r="C48" s="22"/>
+      <c r="C48" s="21"/>
     </row>
     <row r="49" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A49" s="21" t="s">
+      <c r="A49" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B49" s="31">
+      <c r="B49" s="30">
         <v>45339</v>
       </c>
-      <c r="C49" s="22"/>
+      <c r="C49" s="21"/>
     </row>
     <row r="50" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A50" s="21" t="s">
+      <c r="A50" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B50" s="31">
+      <c r="B50" s="30">
         <v>45340</v>
       </c>
-      <c r="C50" s="22"/>
+      <c r="C50" s="21"/>
     </row>
     <row r="51" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A51" s="18" t="s">
+      <c r="A51" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B51" s="17"/>
-      <c r="C51" s="23"/>
+      <c r="B51" s="35"/>
+      <c r="C51" s="22"/>
     </row>
     <row r="52" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A52" s="19" t="s">
+      <c r="A52" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B52" s="32">
+      <c r="B52" s="31">
         <v>44976</v>
       </c>
-      <c r="C52" s="20"/>
+      <c r="C52" s="19"/>
     </row>
     <row r="53" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A53" s="19" t="s">
+      <c r="A53" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B53" s="32">
+      <c r="B53" s="31">
         <v>44977</v>
       </c>
-      <c r="C53" s="22"/>
+      <c r="C53" s="21"/>
     </row>
     <row r="54" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A54" s="19" t="s">
+      <c r="A54" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B54" s="32">
+      <c r="B54" s="31">
         <v>44978</v>
       </c>
-      <c r="C54" s="20"/>
+      <c r="C54" s="19"/>
     </row>
     <row r="55" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A55" s="19" t="s">
+      <c r="A55" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B55" s="32">
+      <c r="B55" s="31">
         <v>44979</v>
       </c>
-      <c r="C55" s="20"/>
+      <c r="C55" s="19"/>
     </row>
     <row r="56" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A56" s="19" t="s">
+      <c r="A56" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B56" s="32">
+      <c r="B56" s="31">
         <v>44980</v>
       </c>
-      <c r="C56" s="20"/>
+      <c r="C56" s="19"/>
     </row>
     <row r="57" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A57" s="21" t="s">
+      <c r="A57" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B57" s="31">
+      <c r="B57" s="30">
         <v>44981</v>
       </c>
-      <c r="C57" s="20"/>
+      <c r="C57" s="19"/>
     </row>
     <row r="58" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A58" s="21" t="s">
+      <c r="A58" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B58" s="31">
+      <c r="B58" s="30">
         <v>44982</v>
       </c>
-      <c r="C58" s="20"/>
+      <c r="C58" s="19"/>
     </row>
     <row r="59" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A59" s="18" t="s">
+      <c r="A59" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B59" s="17"/>
-      <c r="C59" s="23"/>
+      <c r="B59" s="35"/>
+      <c r="C59" s="22"/>
     </row>
     <row r="60" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A60" s="19" t="s">
+      <c r="A60" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B60" s="32">
+      <c r="B60" s="31">
         <v>44983</v>
       </c>
-      <c r="C60" s="20"/>
+      <c r="C60" s="19"/>
     </row>
     <row r="61" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A61" s="19" t="s">
+      <c r="A61" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B61" s="32">
+      <c r="B61" s="31">
         <v>44984</v>
       </c>
-      <c r="C61" s="20"/>
+      <c r="C61" s="19"/>
     </row>
     <row r="62" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A62" s="19" t="s">
+      <c r="A62" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B62" s="32">
+      <c r="B62" s="31">
         <v>44985</v>
       </c>
-      <c r="C62" s="20"/>
+      <c r="C62" s="19"/>
     </row>
     <row r="63" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A63" s="19" t="s">
+      <c r="A63" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B63" s="32">
+      <c r="B63" s="31">
         <v>45351</v>
       </c>
-      <c r="C63" s="20"/>
+      <c r="C63" s="19"/>
     </row>
     <row r="64" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A64" s="19" t="s">
+      <c r="A64" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B64" s="32">
+      <c r="B64" s="31">
         <v>44986</v>
       </c>
-      <c r="C64" s="20"/>
+      <c r="C64" s="19"/>
     </row>
     <row r="65" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A65" s="21" t="s">
+      <c r="A65" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B65" s="31">
+      <c r="B65" s="30">
         <v>44987</v>
       </c>
-      <c r="C65" s="20"/>
+      <c r="C65" s="19"/>
     </row>
     <row r="66" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A66" s="21" t="s">
+      <c r="A66" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B66" s="31">
+      <c r="B66" s="30">
         <v>44988</v>
       </c>
-      <c r="C66" s="20"/>
+      <c r="C66" s="19"/>
     </row>
     <row r="67" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A67" s="18" t="s">
+      <c r="A67" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B67" s="17"/>
-      <c r="C67" s="23"/>
+      <c r="B67" s="35"/>
+      <c r="C67" s="22"/>
       <c r="I67" s="1"/>
     </row>
     <row r="68" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A68" s="19" t="s">
+      <c r="A68" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B68" s="32">
+      <c r="B68" s="31">
         <v>44989</v>
       </c>
-      <c r="C68" s="20"/>
+      <c r="C68" s="19"/>
       <c r="I68" s="1"/>
     </row>
     <row r="69" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A69" s="19" t="s">
+      <c r="A69" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B69" s="32">
+      <c r="B69" s="31">
         <v>44990</v>
       </c>
-      <c r="C69" s="20"/>
+      <c r="C69" s="19"/>
       <c r="I69" s="1"/>
     </row>
     <row r="70" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A70" s="19" t="s">
+      <c r="A70" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B70" s="32">
+      <c r="B70" s="31">
         <v>44991</v>
       </c>
-      <c r="C70" s="20"/>
+      <c r="C70" s="19"/>
       <c r="I70" s="1"/>
     </row>
     <row r="71" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A71" s="19" t="s">
+      <c r="A71" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B71" s="32">
+      <c r="B71" s="31">
         <v>44992</v>
       </c>
-      <c r="C71" s="22"/>
+      <c r="C71" s="21"/>
       <c r="I71" s="1"/>
     </row>
     <row r="72" spans="1:9" ht="22.8">
-      <c r="A72" s="19" t="s">
+      <c r="A72" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B72" s="32">
+      <c r="B72" s="31">
         <v>44993</v>
       </c>
-      <c r="C72" s="20"/>
+      <c r="C72" s="19"/>
       <c r="I72" s="1"/>
     </row>
     <row r="73" spans="1:9" ht="22.8">
-      <c r="A73" s="21" t="s">
+      <c r="A73" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B73" s="31">
+      <c r="B73" s="30">
         <v>44994</v>
       </c>
-      <c r="C73" s="26"/>
+      <c r="C73" s="25"/>
       <c r="I73" s="1"/>
     </row>
     <row r="74" spans="1:9" ht="22.8">
-      <c r="A74" s="21" t="s">
+      <c r="A74" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B74" s="31">
+      <c r="B74" s="30">
         <v>44995</v>
       </c>
-      <c r="C74" s="20"/>
+      <c r="C74" s="19"/>
       <c r="I74" s="1"/>
     </row>
     <row r="75" spans="1:9" ht="17.399999999999999">
-      <c r="A75" s="18" t="s">
+      <c r="A75" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B75" s="17"/>
-      <c r="C75" s="23"/>
+      <c r="B75" s="35"/>
+      <c r="C75" s="22"/>
       <c r="I75" s="1"/>
     </row>
     <row r="76" spans="1:9" ht="22.8">
-      <c r="A76" s="19" t="s">
+      <c r="A76" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B76" s="32">
+      <c r="B76" s="31">
         <v>44996</v>
       </c>
-      <c r="C76" s="20"/>
+      <c r="C76" s="19"/>
       <c r="I76" s="1"/>
     </row>
     <row r="77" spans="1:9" ht="22.8">
-      <c r="A77" s="19" t="s">
+      <c r="A77" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B77" s="32">
+      <c r="B77" s="31">
         <v>44997</v>
       </c>
-      <c r="C77" s="20"/>
+      <c r="C77" s="19"/>
       <c r="I77" s="1"/>
     </row>
     <row r="78" spans="1:9" ht="22.8">
-      <c r="A78" s="19" t="s">
+      <c r="A78" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B78" s="32">
+      <c r="B78" s="31">
         <v>44998</v>
       </c>
-      <c r="C78" s="20"/>
+      <c r="C78" s="19"/>
       <c r="I78" s="1"/>
     </row>
     <row r="79" spans="1:9" ht="22.8">
-      <c r="A79" s="19" t="s">
+      <c r="A79" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B79" s="32">
+      <c r="B79" s="31">
         <v>44999</v>
       </c>
-      <c r="C79" s="20"/>
+      <c r="C79" s="19"/>
       <c r="I79" s="1"/>
     </row>
     <row r="80" spans="1:9" ht="22.8">
-      <c r="A80" s="19" t="s">
+      <c r="A80" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B80" s="32">
+      <c r="B80" s="31">
         <v>45000</v>
       </c>
-      <c r="C80" s="20"/>
+      <c r="C80" s="19"/>
       <c r="I80" s="1"/>
     </row>
     <row r="81" spans="1:9" ht="22.8">
-      <c r="A81" s="21" t="s">
+      <c r="A81" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B81" s="31">
+      <c r="B81" s="30">
         <v>45001</v>
       </c>
-      <c r="C81" s="22"/>
+      <c r="C81" s="21"/>
       <c r="I81" s="1"/>
     </row>
     <row r="82" spans="1:9" ht="22.8">
-      <c r="A82" s="21" t="s">
+      <c r="A82" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B82" s="31">
+      <c r="B82" s="30">
         <v>45002</v>
       </c>
-      <c r="C82" s="20"/>
+      <c r="C82" s="19"/>
       <c r="I82" s="1"/>
     </row>
     <row r="83" spans="1:9" ht="17.399999999999999">
-      <c r="A83" s="18" t="s">
+      <c r="A83" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B83" s="17"/>
-      <c r="C83" s="23"/>
+      <c r="B83" s="35"/>
+      <c r="C83" s="22"/>
       <c r="I83" s="1"/>
     </row>
     <row r="84" spans="1:9" ht="22.8">
-      <c r="A84" s="19" t="s">
+      <c r="A84" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B84" s="32">
+      <c r="B84" s="31">
         <v>45003</v>
       </c>
-      <c r="C84" s="20"/>
+      <c r="C84" s="19"/>
       <c r="I84" s="1"/>
     </row>
     <row r="85" spans="1:9" ht="22.8">
-      <c r="A85" s="19" t="s">
+      <c r="A85" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B85" s="32">
+      <c r="B85" s="31">
         <v>45004</v>
       </c>
-      <c r="C85" s="20"/>
+      <c r="C85" s="19"/>
       <c r="I85" s="1"/>
     </row>
     <row r="86" spans="1:9" ht="22.8">
-      <c r="A86" s="19" t="s">
+      <c r="A86" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B86" s="32">
+      <c r="B86" s="31">
         <v>45005</v>
       </c>
-      <c r="C86" s="20"/>
+      <c r="C86" s="19"/>
       <c r="I86" s="1"/>
     </row>
     <row r="87" spans="1:9" ht="22.8">
-      <c r="A87" s="19" t="s">
+      <c r="A87" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B87" s="32">
+      <c r="B87" s="31">
         <v>45006</v>
       </c>
-      <c r="C87" s="27"/>
+      <c r="C87" s="26"/>
       <c r="I87" s="1"/>
     </row>
     <row r="88" spans="1:9" ht="22.8">
-      <c r="A88" s="19" t="s">
+      <c r="A88" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B88" s="32">
+      <c r="B88" s="31">
         <v>45007</v>
       </c>
-      <c r="C88" s="20"/>
+      <c r="C88" s="19"/>
       <c r="I88" s="1"/>
     </row>
     <row r="89" spans="1:9" ht="22.8">
-      <c r="A89" s="21" t="s">
+      <c r="A89" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B89" s="31">
+      <c r="B89" s="30">
         <v>45374</v>
       </c>
-      <c r="C89" s="22"/>
+      <c r="C89" s="21"/>
       <c r="I89" s="1"/>
     </row>
     <row r="90" spans="1:9" ht="22.8">
-      <c r="A90" s="21" t="s">
+      <c r="A90" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B90" s="31">
+      <c r="B90" s="30">
         <v>45009</v>
       </c>
-      <c r="C90" s="22"/>
+      <c r="C90" s="21"/>
       <c r="I90" s="1"/>
     </row>
     <row r="91" spans="1:9" ht="13.2">
@@ -4226,7 +4234,7 @@
     <col min="7" max="7" width="22.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:26" ht="13.2">
       <c r="A1" s="2" t="s">
         <v>27</v>
       </c>
@@ -4262,7 +4270,7 @@
       <c r="Y1" s="4"/>
       <c r="Z1" s="4"/>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:26" ht="13.2">
       <c r="A2" s="4" t="s">
         <v>14</v>
       </c>
@@ -4296,7 +4304,7 @@
       <c r="Y2" s="4"/>
       <c r="Z2" s="4"/>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:26" ht="13.2">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -4330,7 +4338,7 @@
       <c r="Y3" s="4"/>
       <c r="Z3" s="4"/>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:26" ht="13.2">
       <c r="A4" s="4" t="s">
         <v>16</v>
       </c>
@@ -4364,7 +4372,7 @@
       <c r="Y4" s="4"/>
       <c r="Z4" s="4"/>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:26" ht="13.2">
       <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
@@ -4398,7 +4406,7 @@
       <c r="Y5" s="4"/>
       <c r="Z5" s="4"/>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:26" ht="13.2">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -4426,7 +4434,7 @@
       <c r="Y6" s="4"/>
       <c r="Z6" s="4"/>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:26" ht="13.2">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -4454,7 +4462,7 @@
       <c r="Y7" s="4"/>
       <c r="Z7" s="4"/>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:26" ht="13.2">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -4482,7 +4490,7 @@
       <c r="Y8" s="4"/>
       <c r="Z8" s="4"/>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" spans="1:26" ht="13.2">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -4510,7 +4518,7 @@
       <c r="Y9" s="4"/>
       <c r="Z9" s="4"/>
     </row>
-    <row r="10" spans="1:26">
+    <row r="10" spans="1:26" ht="13.2">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -4538,7 +4546,7 @@
       <c r="Y10" s="4"/>
       <c r="Z10" s="4"/>
     </row>
-    <row r="11" spans="1:26">
+    <row r="11" spans="1:26" ht="13.2">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -4566,7 +4574,7 @@
       <c r="Y11" s="4"/>
       <c r="Z11" s="4"/>
     </row>
-    <row r="12" spans="1:26">
+    <row r="12" spans="1:26" ht="13.2">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="6"/>
@@ -4594,7 +4602,7 @@
       <c r="Y12" s="4"/>
       <c r="Z12" s="4"/>
     </row>
-    <row r="13" spans="1:26">
+    <row r="13" spans="1:26" ht="13.2">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -4622,7 +4630,7 @@
       <c r="Y13" s="4"/>
       <c r="Z13" s="4"/>
     </row>
-    <row r="14" spans="1:26">
+    <row r="14" spans="1:26" ht="13.2">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -4650,7 +4658,7 @@
       <c r="Y14" s="4"/>
       <c r="Z14" s="4"/>
     </row>
-    <row r="15" spans="1:26">
+    <row r="15" spans="1:26" ht="13.2">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -4678,7 +4686,7 @@
       <c r="Y15" s="4"/>
       <c r="Z15" s="4"/>
     </row>
-    <row r="16" spans="1:26">
+    <row r="16" spans="1:26" ht="13.2">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -4706,7 +4714,7 @@
       <c r="Y16" s="4"/>
       <c r="Z16" s="4"/>
     </row>
-    <row r="17" spans="1:26">
+    <row r="17" spans="1:26" ht="13.2">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -4734,7 +4742,7 @@
       <c r="Y17" s="4"/>
       <c r="Z17" s="4"/>
     </row>
-    <row r="18" spans="1:26">
+    <row r="18" spans="1:26" ht="13.2">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -4762,7 +4770,7 @@
       <c r="Y18" s="4"/>
       <c r="Z18" s="4"/>
     </row>
-    <row r="19" spans="1:26">
+    <row r="19" spans="1:26" ht="13.2">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -4790,7 +4798,7 @@
       <c r="Y19" s="4"/>
       <c r="Z19" s="4"/>
     </row>
-    <row r="20" spans="1:26">
+    <row r="20" spans="1:26" ht="13.2">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -4818,7 +4826,7 @@
       <c r="Y20" s="4"/>
       <c r="Z20" s="4"/>
     </row>
-    <row r="21" spans="1:26">
+    <row r="21" spans="1:26" ht="13.2">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -4846,7 +4854,7 @@
       <c r="Y21" s="4"/>
       <c r="Z21" s="4"/>
     </row>
-    <row r="22" spans="1:26">
+    <row r="22" spans="1:26" ht="13.2">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -4874,7 +4882,7 @@
       <c r="Y22" s="4"/>
       <c r="Z22" s="4"/>
     </row>
-    <row r="23" spans="1:26">
+    <row r="23" spans="1:26" ht="13.2">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="6"/>
@@ -4902,7 +4910,7 @@
       <c r="Y23" s="4"/>
       <c r="Z23" s="4"/>
     </row>
-    <row r="24" spans="1:26">
+    <row r="24" spans="1:26" ht="13.2">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="6"/>
@@ -4930,7 +4938,7 @@
       <c r="Y24" s="4"/>
       <c r="Z24" s="4"/>
     </row>
-    <row r="25" spans="1:26">
+    <row r="25" spans="1:26" ht="13.2">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -4958,7 +4966,7 @@
       <c r="Y25" s="4"/>
       <c r="Z25" s="4"/>
     </row>
-    <row r="26" spans="1:26">
+    <row r="26" spans="1:26" ht="13.2">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -4986,7 +4994,7 @@
       <c r="Y26" s="4"/>
       <c r="Z26" s="4"/>
     </row>
-    <row r="27" spans="1:26">
+    <row r="27" spans="1:26" ht="13.2">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -5014,7 +5022,7 @@
       <c r="Y27" s="4"/>
       <c r="Z27" s="4"/>
     </row>
-    <row r="28" spans="1:26">
+    <row r="28" spans="1:26" ht="13.2">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="6"/>
@@ -5042,7 +5050,7 @@
       <c r="Y28" s="4"/>
       <c r="Z28" s="4"/>
     </row>
-    <row r="29" spans="1:26">
+    <row r="29" spans="1:26" ht="13.2">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="6"/>
@@ -5070,7 +5078,7 @@
       <c r="Y29" s="4"/>
       <c r="Z29" s="4"/>
     </row>
-    <row r="30" spans="1:26">
+    <row r="30" spans="1:26" ht="13.2">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -5098,7 +5106,7 @@
       <c r="Y30" s="4"/>
       <c r="Z30" s="4"/>
     </row>
-    <row r="31" spans="1:26">
+    <row r="31" spans="1:26" ht="13.2">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="6"/>
@@ -5126,7 +5134,7 @@
       <c r="Y31" s="4"/>
       <c r="Z31" s="4"/>
     </row>
-    <row r="32" spans="1:26">
+    <row r="32" spans="1:26" ht="13.2">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -5182,7 +5190,7 @@
       <c r="Y33" s="4"/>
       <c r="Z33" s="4"/>
     </row>
-    <row r="34" spans="1:26">
+    <row r="34" spans="1:26" ht="13.8">
       <c r="A34" s="6"/>
       <c r="B34" s="4"/>
       <c r="C34" s="8"/>
@@ -5294,7 +5302,7 @@
       <c r="Y37" s="4"/>
       <c r="Z37" s="4"/>
     </row>
-    <row r="38" spans="1:26">
+    <row r="38" spans="1:26" ht="13.8">
       <c r="A38" s="6"/>
       <c r="B38" s="4"/>
       <c r="C38" s="8"/>
@@ -5322,7 +5330,7 @@
       <c r="Y38" s="4"/>
       <c r="Z38" s="4"/>
     </row>
-    <row r="39" spans="1:26">
+    <row r="39" spans="1:26" ht="13.8">
       <c r="A39" s="9"/>
       <c r="B39" s="4"/>
       <c r="C39" s="8"/>
@@ -5462,7 +5470,7 @@
       <c r="Y43" s="4"/>
       <c r="Z43" s="4"/>
     </row>
-    <row r="44" spans="1:26">
+    <row r="44" spans="1:26" ht="13.2">
       <c r="A44" s="10"/>
       <c r="B44" s="10"/>
       <c r="C44" s="10"/>
@@ -5490,7 +5498,7 @@
       <c r="Y44" s="4"/>
       <c r="Z44" s="4"/>
     </row>
-    <row r="45" spans="1:26">
+    <row r="45" spans="1:26" ht="13.2">
       <c r="A45" s="10"/>
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
@@ -5518,7 +5526,7 @@
       <c r="Y45" s="4"/>
       <c r="Z45" s="4"/>
     </row>
-    <row r="46" spans="1:26">
+    <row r="46" spans="1:26" ht="13.2">
       <c r="A46" s="10"/>
       <c r="B46" s="10"/>
       <c r="C46" s="10"/>
@@ -5546,7 +5554,7 @@
       <c r="Y46" s="4"/>
       <c r="Z46" s="4"/>
     </row>
-    <row r="47" spans="1:26">
+    <row r="47" spans="1:26" ht="13.2">
       <c r="A47" s="10"/>
       <c r="B47" s="10"/>
       <c r="C47" s="10"/>
@@ -5574,7 +5582,7 @@
       <c r="Y47" s="4"/>
       <c r="Z47" s="4"/>
     </row>
-    <row r="48" spans="1:26">
+    <row r="48" spans="1:26" ht="13.2">
       <c r="A48" s="10"/>
       <c r="B48" s="10"/>
       <c r="C48" s="10"/>
@@ -5602,7 +5610,7 @@
       <c r="Y48" s="12"/>
       <c r="Z48" s="12"/>
     </row>
-    <row r="49" spans="1:26">
+    <row r="49" spans="1:26" ht="13.2">
       <c r="A49" s="10"/>
       <c r="B49" s="10"/>
       <c r="C49" s="10"/>
@@ -5630,7 +5638,7 @@
       <c r="Y49" s="4"/>
       <c r="Z49" s="4"/>
     </row>
-    <row r="50" spans="1:26">
+    <row r="50" spans="1:26" ht="13.2">
       <c r="A50" s="10"/>
       <c r="B50" s="10"/>
       <c r="C50" s="10"/>
@@ -5658,7 +5666,7 @@
       <c r="Y50" s="4"/>
       <c r="Z50" s="4"/>
     </row>
-    <row r="51" spans="1:26">
+    <row r="51" spans="1:26" ht="13.2">
       <c r="A51" s="10"/>
       <c r="B51" s="10"/>
       <c r="C51" s="10"/>
@@ -5686,7 +5694,7 @@
       <c r="Y51" s="4"/>
       <c r="Z51" s="4"/>
     </row>
-    <row r="52" spans="1:26">
+    <row r="52" spans="1:26" ht="13.2">
       <c r="A52" s="10"/>
       <c r="B52" s="10"/>
       <c r="C52" s="13"/>
@@ -5714,7 +5722,7 @@
       <c r="Y52" s="4"/>
       <c r="Z52" s="4"/>
     </row>
-    <row r="53" spans="1:26">
+    <row r="53" spans="1:26" ht="13.2">
       <c r="A53" s="10"/>
       <c r="B53" s="10"/>
       <c r="C53" s="10"/>
@@ -5742,7 +5750,7 @@
       <c r="Y53" s="4"/>
       <c r="Z53" s="4"/>
     </row>
-    <row r="54" spans="1:26">
+    <row r="54" spans="1:26" ht="13.2">
       <c r="A54" s="10"/>
       <c r="B54" s="10"/>
       <c r="C54" s="10"/>
@@ -5770,7 +5778,7 @@
       <c r="Y54" s="4"/>
       <c r="Z54" s="4"/>
     </row>
-    <row r="55" spans="1:26">
+    <row r="55" spans="1:26" ht="13.2">
       <c r="A55" s="10"/>
       <c r="B55" s="10"/>
       <c r="C55" s="10"/>
@@ -5798,7 +5806,7 @@
       <c r="Y55" s="4"/>
       <c r="Z55" s="4"/>
     </row>
-    <row r="56" spans="1:26">
+    <row r="56" spans="1:26" ht="13.2">
       <c r="A56" s="10"/>
       <c r="B56" s="10"/>
       <c r="C56" s="10"/>
@@ -5826,7 +5834,7 @@
       <c r="Y56" s="4"/>
       <c r="Z56" s="4"/>
     </row>
-    <row r="57" spans="1:26">
+    <row r="57" spans="1:26" ht="13.2">
       <c r="A57" s="10"/>
       <c r="B57" s="10"/>
       <c r="C57" s="10"/>
@@ -5854,7 +5862,7 @@
       <c r="Y57" s="4"/>
       <c r="Z57" s="4"/>
     </row>
-    <row r="58" spans="1:26">
+    <row r="58" spans="1:26" ht="13.2">
       <c r="A58" s="10"/>
       <c r="B58" s="10"/>
       <c r="C58" s="10"/>
@@ -5882,7 +5890,7 @@
       <c r="Y58" s="4"/>
       <c r="Z58" s="4"/>
     </row>
-    <row r="59" spans="1:26">
+    <row r="59" spans="1:26" ht="13.2">
       <c r="A59" s="10"/>
       <c r="B59" s="10"/>
       <c r="C59" s="13"/>
@@ -5910,7 +5918,7 @@
       <c r="Y59" s="4"/>
       <c r="Z59" s="4"/>
     </row>
-    <row r="60" spans="1:26">
+    <row r="60" spans="1:26" ht="13.2">
       <c r="A60" s="10"/>
       <c r="B60" s="10"/>
       <c r="C60" s="13"/>
@@ -5938,7 +5946,7 @@
       <c r="Y60" s="4"/>
       <c r="Z60" s="4"/>
     </row>
-    <row r="61" spans="1:26">
+    <row r="61" spans="1:26" ht="13.2">
       <c r="A61" s="10"/>
       <c r="B61" s="10"/>
       <c r="C61" s="10"/>
@@ -5966,7 +5974,7 @@
       <c r="Y61" s="4"/>
       <c r="Z61" s="4"/>
     </row>
-    <row r="62" spans="1:26">
+    <row r="62" spans="1:26" ht="13.2">
       <c r="A62" s="10"/>
       <c r="B62" s="10"/>
       <c r="C62" s="10"/>
@@ -5994,7 +6002,7 @@
       <c r="Y62" s="4"/>
       <c r="Z62" s="4"/>
     </row>
-    <row r="63" spans="1:26">
+    <row r="63" spans="1:26" ht="13.2">
       <c r="A63" s="10"/>
       <c r="B63" s="10"/>
       <c r="C63" s="10"/>
@@ -6022,7 +6030,7 @@
       <c r="Y63" s="4"/>
       <c r="Z63" s="4"/>
     </row>
-    <row r="64" spans="1:26">
+    <row r="64" spans="1:26" ht="13.2">
       <c r="A64" s="10"/>
       <c r="B64" s="10"/>
       <c r="C64" s="10"/>
@@ -6050,7 +6058,7 @@
       <c r="Y64" s="4"/>
       <c r="Z64" s="4"/>
     </row>
-    <row r="65" spans="1:26">
+    <row r="65" spans="1:26" ht="13.2">
       <c r="A65" s="10"/>
       <c r="B65" s="10"/>
       <c r="C65" s="10"/>
@@ -6078,7 +6086,7 @@
       <c r="Y65" s="4"/>
       <c r="Z65" s="4"/>
     </row>
-    <row r="66" spans="1:26">
+    <row r="66" spans="1:26" ht="13.2">
       <c r="A66" s="10"/>
       <c r="B66" s="10"/>
       <c r="C66" s="10"/>
@@ -6106,7 +6114,7 @@
       <c r="Y66" s="4"/>
       <c r="Z66" s="4"/>
     </row>
-    <row r="67" spans="1:26">
+    <row r="67" spans="1:26" ht="13.2">
       <c r="A67" s="10"/>
       <c r="B67" s="10"/>
       <c r="C67" s="10"/>
@@ -6134,7 +6142,7 @@
       <c r="Y67" s="4"/>
       <c r="Z67" s="4"/>
     </row>
-    <row r="68" spans="1:26">
+    <row r="68" spans="1:26" ht="13.2">
       <c r="A68" s="10"/>
       <c r="B68" s="10"/>
       <c r="C68" s="10"/>
@@ -6162,7 +6170,7 @@
       <c r="Y68" s="4"/>
       <c r="Z68" s="4"/>
     </row>
-    <row r="69" spans="1:26">
+    <row r="69" spans="1:26" ht="13.2">
       <c r="A69" s="10"/>
       <c r="B69" s="10"/>
       <c r="C69" s="10"/>
@@ -6190,7 +6198,7 @@
       <c r="Y69" s="4"/>
       <c r="Z69" s="4"/>
     </row>
-    <row r="70" spans="1:26">
+    <row r="70" spans="1:26" ht="13.2">
       <c r="A70" s="10"/>
       <c r="B70" s="10"/>
       <c r="C70" s="10"/>
@@ -6218,7 +6226,7 @@
       <c r="Y70" s="4"/>
       <c r="Z70" s="4"/>
     </row>
-    <row r="71" spans="1:26">
+    <row r="71" spans="1:26" ht="13.2">
       <c r="A71" s="10"/>
       <c r="B71" s="10"/>
       <c r="C71" s="13"/>
@@ -6246,7 +6254,7 @@
       <c r="Y71" s="4"/>
       <c r="Z71" s="4"/>
     </row>
-    <row r="72" spans="1:26">
+    <row r="72" spans="1:26" ht="13.2">
       <c r="A72" s="10"/>
       <c r="B72" s="10"/>
       <c r="C72" s="10"/>
@@ -6274,7 +6282,7 @@
       <c r="Y72" s="4"/>
       <c r="Z72" s="4"/>
     </row>
-    <row r="73" spans="1:26">
+    <row r="73" spans="1:26" ht="13.2">
       <c r="A73" s="10"/>
       <c r="B73" s="10"/>
       <c r="C73" s="10"/>
@@ -6302,7 +6310,7 @@
       <c r="Y73" s="4"/>
       <c r="Z73" s="4"/>
     </row>
-    <row r="74" spans="1:26">
+    <row r="74" spans="1:26" ht="13.2">
       <c r="A74" s="10"/>
       <c r="B74" s="10"/>
       <c r="C74" s="13"/>
@@ -6330,7 +6338,7 @@
       <c r="Y74" s="4"/>
       <c r="Z74" s="4"/>
     </row>
-    <row r="75" spans="1:26">
+    <row r="75" spans="1:26" ht="13.2">
       <c r="A75" s="10"/>
       <c r="B75" s="10"/>
       <c r="C75" s="10"/>
@@ -6358,7 +6366,7 @@
       <c r="Y75" s="4"/>
       <c r="Z75" s="4"/>
     </row>
-    <row r="76" spans="1:26">
+    <row r="76" spans="1:26" ht="13.2">
       <c r="A76" s="10"/>
       <c r="B76" s="10"/>
       <c r="C76" s="10"/>
